--- a/spring_workspace/Mall/SQL/데이터미리보기.xlsx
+++ b/spring_workspace/Mall/SQL/데이터미리보기.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spring_workspace\Mall\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C9EABE-65E2-4A07-8320-3390DCC7C2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEBA904-0338-4A66-86B7-9492322600A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8AA0B1C2-D4D5-4BB7-BC62-0DAAC9651BDF}"/>
+    <workbookView xWindow="-10980" yWindow="1275" windowWidth="13245" windowHeight="11550" xr2:uid="{8AA0B1C2-D4D5-4BB7-BC62-0DAAC9651BDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,40 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
-  <si>
-    <t>상위카테고리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>topcategory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>topcategory_idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>topname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>액세서리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가방</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>thumb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>color_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,6 +197,169 @@
   </si>
   <si>
     <t>파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>member_idx</t>
+  </si>
+  <si>
+    <t>cart_idx</t>
+  </si>
+  <si>
+    <t>product_idx</t>
+  </si>
+  <si>
+    <t>수량</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>외래키</t>
+  </si>
+  <si>
+    <t>delivery_idx</t>
+  </si>
+  <si>
+    <t>누가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무엇을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몇 개나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박쥐인간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bat@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homepage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> asdf32423542432</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하얀천사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>google</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kakao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1test@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2test@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은천사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회색늑대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">홈페이지 자체 회원가입자와 SNS 회원가입자 들간 같은 Member 테이블을 사용해야 하므로, NULL이 존재함, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해결책?  별도의 테이블로 뺀다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누구에 대한 정보?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_detail_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNS_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns_idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -240,7 +367,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,8 +383,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,12 +403,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,8 +424,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -364,24 +506,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -391,6 +525,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -400,13 +537,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -421,12 +570,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -738,534 +894,837 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BDE54B-44A1-4A87-A664-D2E9921E66F7}">
-  <dimension ref="A2:N26"/>
+  <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A20" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.19921875" customWidth="1"/>
-    <col min="4" max="4" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.19921875" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" customWidth="1"/>
+    <col min="4" max="4" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.59765625" customWidth="1"/>
-    <col min="13" max="14" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.296875" customWidth="1"/>
+    <col min="10" max="10" width="12.59765625" customWidth="1"/>
+    <col min="11" max="12" width="14.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="F3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="D2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="D3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="H3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1">
+      <c r="L5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D7" s="3">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="J9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="D8" s="3">
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1">
+        <v>95</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B12" s="3">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1">
+        <v>100</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B13" s="3">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1">
+        <v>105</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B15" s="3">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B16" s="4">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="D9" s="1">
+      <c r="F16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="4">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="4">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B22" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B23" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B27" s="1">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F29" s="10"/>
+      <c r="H29" s="1">
+        <v>4</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B30" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B37" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
+      <c r="H37" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="20"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B39" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="H39" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
+      <c r="K40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1">
         <v>5</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="K41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1">
+        <v>8</v>
+      </c>
+      <c r="K42" s="1">
         <v>2</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="D10" s="1">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="D11" s="1">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="D12" s="3">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="D13" s="3">
-        <v>9</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="3">
-        <v>3</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="D14" s="3">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="D15" s="3">
-        <v>11</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="D16" s="4">
-        <v>12</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="4">
-        <v>4</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D17" s="4">
-        <v>13</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="4">
-        <v>4</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D18" s="4">
-        <v>14</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="4">
-        <v>4</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D21" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="L21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1</v>
-      </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1">
-        <v>95</v>
-      </c>
-      <c r="N23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J24" s="1">
-        <v>1</v>
-      </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1">
-        <v>100</v>
-      </c>
-      <c r="N24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J25" s="1">
-        <v>1</v>
-      </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1">
-        <v>105</v>
-      </c>
-      <c r="N25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1</v>
-      </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1">
-        <v>110</v>
-      </c>
-      <c r="N26" s="1">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:J21"/>
+  <mergeCells count="13">
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E25" r:id="rId1" xr:uid="{5766A98E-1858-491A-8CFC-8C0807B2BB29}"/>
+    <hyperlink ref="E26" r:id="rId2" xr:uid="{7A7916FB-C45D-4800-95C6-6D729B098961}"/>
+    <hyperlink ref="E27" r:id="rId3" xr:uid="{52578BB0-E279-461F-91AD-44F749B127DA}"/>
+    <hyperlink ref="E28" r:id="rId4" xr:uid="{9D994BC9-FD15-4AF2-919B-1AF9D3B5CBBE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C65F641-EAEB-4297-A872-163C4480E59B}">
-  <dimension ref="D19:E19"/>
+  <dimension ref="D8:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:E19"/>
+      <selection activeCell="J21" sqref="J21:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="18" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D19" s="1">
         <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="G20" s="8"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="K22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/spring_workspace/Mall/SQL/데이터미리보기.xlsx
+++ b/spring_workspace/Mall/SQL/데이터미리보기.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spring_workspace\Mall\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEBA904-0338-4A66-86B7-9492322600A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACBCF2E-220D-4B2F-85BF-B293E24C8C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10980" yWindow="1275" windowWidth="13245" windowHeight="11550" xr2:uid="{8AA0B1C2-D4D5-4BB7-BC62-0DAAC9651BDF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8AA0B1C2-D4D5-4BB7-BC62-0DAAC9651BDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,7 +437,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -506,6 +506,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -515,7 +526,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -555,28 +566,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -894,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BDE54B-44A1-4A87-A664-D2E9921E66F7}">
-  <dimension ref="B2:L42"/>
+  <dimension ref="B2:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A20" sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D35" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -913,30 +927,31 @@
     <col min="9" max="9" width="12.296875" customWidth="1"/>
     <col min="10" max="10" width="12.59765625" customWidth="1"/>
     <col min="11" max="12" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="F3" s="13" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="F3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
@@ -1051,16 +1066,16 @@
       <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="J9" s="13" t="s">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="J9" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
@@ -1187,11 +1202,11 @@
       <c r="D15" s="3">
         <v>3</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
@@ -1259,37 +1274,37 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="7" t="s">
@@ -1307,10 +1322,10 @@
       <c r="F24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="I24" s="13"/>
+      <c r="I24" s="20"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
@@ -1414,13 +1429,13 @@
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B31" s="1"/>
@@ -1448,43 +1463,43 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B37" s="18" t="s">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B37" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="20"/>
-      <c r="H37" s="18" t="s">
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="19"/>
+      <c r="H37" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="20"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="19"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
         <v>49</v>
       </c>
@@ -1504,8 +1519,10 @@
       <c r="K38" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B39" s="7" t="s">
         <v>51</v>
       </c>
@@ -1528,7 +1545,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B40" s="1"/>
       <c r="C40" s="1">
         <v>2</v>
@@ -1536,7 +1553,9 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
       <c r="I40" s="1">
         <v>1</v>
       </c>
@@ -1544,10 +1563,10 @@
         <v>1</v>
       </c>
       <c r="K40" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B41" s="1"/>
       <c r="C41" s="1">
         <v>3</v>
@@ -1556,17 +1575,11 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1">
-        <v>1</v>
-      </c>
-      <c r="J41" s="1">
-        <v>5</v>
-      </c>
-      <c r="K41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B42" s="1"/>
       <c r="C42" s="1">
         <v>1</v>
@@ -1575,18 +1588,37 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1">
-        <v>1</v>
-      </c>
-      <c r="J42" s="1">
-        <v>8</v>
-      </c>
-      <c r="K42" s="1">
-        <v>2</v>
-      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="I44" s="13"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="I45" s="13"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="I46" s="13"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="I48" s="13"/>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I49" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F9:H9"/>
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="B37:F37"/>
     <mergeCell ref="J9:L9"/>
@@ -1596,10 +1628,6 @@
     <mergeCell ref="B30:F30"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/spring_workspace/Mall/SQL/데이터미리보기.xlsx
+++ b/spring_workspace/Mall/SQL/데이터미리보기.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spring_workspace\Mall\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACBCF2E-220D-4B2F-85BF-B293E24C8C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D18EF7B-A1A3-4F97-A4FF-A1D5A1F9C84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8AA0B1C2-D4D5-4BB7-BC62-0DAAC9651BDF}"/>
+    <workbookView xWindow="-22395" yWindow="3675" windowWidth="15195" windowHeight="12330" xr2:uid="{8AA0B1C2-D4D5-4BB7-BC62-0DAAC9651BDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="106">
   <si>
     <t>topcategory_idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,151 +215,233 @@
     <t>수량</t>
   </si>
   <si>
-    <t>delivery</t>
-  </si>
-  <si>
     <t>pk</t>
   </si>
   <si>
     <t>외래키</t>
   </si>
   <si>
+    <t>누가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무엇을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몇 개나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박쥐인간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bat@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homepage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> asdf32423542432</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하얀천사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>google</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kakao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1test@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2test@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은천사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회색늑대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">홈페이지 자체 회원가입자와 SNS 회원가입자 들간 같은 Member 테이블을 사용해야 하므로, NULL이 존재함, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해결책?  별도의 테이블로 뺀다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누구에 대한 정보?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_detail_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNS_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordersummary_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울릉도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌이체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product 테이블 변경 시 영향 받지 않을려고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver ( 받는 사람정보)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_pay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymethod 결제방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymethod_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery 배송정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>delivery_idx</t>
-  </si>
-  <si>
-    <t>누가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무엇을</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몇 개나?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Member</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>batman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박쥐인간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bat@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>homepage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> asdf32423542432</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하얀천사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>google</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>naver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kakao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1test@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2test@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검은천사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회색늑대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">홈페이지 자체 회원가입자와 SNS 회원가입자 들간 같은 Member 테이블을 사용해야 하므로, NULL이 존재함, </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해결책?  별도의 테이블로 뺀다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누구에 대한 정보?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_detail_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNS_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sns_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sns_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderSummary ( 주문요약 - 주문번호를 발생 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderdate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,7 +608,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -560,12 +642,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -592,6 +668,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -908,50 +1002,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BDE54B-44A1-4A87-A664-D2E9921E66F7}">
-  <dimension ref="B2:M49"/>
+  <dimension ref="B2:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D35" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.19921875" customWidth="1"/>
-    <col min="2" max="2" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.296875" customWidth="1"/>
-    <col min="4" max="4" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.8984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.296875" customWidth="1"/>
-    <col min="10" max="10" width="12.59765625" customWidth="1"/>
+    <col min="6" max="6" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.09765625" customWidth="1"/>
+    <col min="10" max="10" width="18.3984375" customWidth="1"/>
     <col min="11" max="12" width="14.8984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="F3" s="20" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="F3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
@@ -1066,16 +1160,16 @@
       <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="J9" s="20" t="s">
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="J9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
@@ -1202,11 +1296,11 @@
       <c r="D15" s="3">
         <v>3</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
@@ -1274,80 +1368,80 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
+      <c r="B21" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
+      <c r="B22" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
+      <c r="B23" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" s="20"/>
+        <v>83</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="18"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="F25" s="1">
         <v>4</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
@@ -1355,22 +1449,22 @@
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
@@ -1378,13 +1472,13 @@
         <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F27" s="1">
         <v>2</v>
@@ -1393,7 +1487,7 @@
         <v>2</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
@@ -1401,13 +1495,13 @@
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F28" s="1">
         <v>3</v>
@@ -1416,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
@@ -1425,22 +1519,22 @@
         <v>4</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B30" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
+      <c r="B30" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1448,19 +1542,19 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B32" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="F32" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.4">
@@ -1485,51 +1579,53 @@
       <c r="F35" s="9"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B37" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="19"/>
-      <c r="H37" s="17" t="s">
+      <c r="B37" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="17"/>
+      <c r="H37" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="19"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="17"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B39" s="7" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="H39" s="7" t="s">
@@ -1548,9 +1644,11 @@
     <row r="40" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B40" s="1"/>
       <c r="C40" s="1">
-        <v>2</v>
-      </c>
-      <c r="D40" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="H40" s="1">
@@ -1569,9 +1667,11 @@
     <row r="41" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B41" s="1"/>
       <c r="C41" s="1">
-        <v>3</v>
-      </c>
-      <c r="D41" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="H41" s="1"/>
@@ -1582,9 +1682,11 @@
     <row r="42" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B42" s="1"/>
       <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="H42" s="1"/>
@@ -1593,28 +1695,193 @@
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="I43" s="13"/>
+      <c r="I43" s="11"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="I44" s="13"/>
+      <c r="B44" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="J44" s="17"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="I45" s="13"/>
+      <c r="B45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="I46" s="13"/>
+      <c r="B46" s="1">
+        <v>23</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="20">
+        <v>45401</v>
+      </c>
+      <c r="E46" s="1">
+        <v>18000</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="I47" s="13"/>
+      <c r="B47" s="1">
+        <v>52</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="20">
+        <v>45432</v>
+      </c>
+      <c r="E47" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2</v>
+      </c>
+      <c r="G47" s="1">
+        <v>2</v>
+      </c>
+      <c r="I47" s="1">
+        <v>2</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="I48" s="13"/>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I49" s="13"/>
+      <c r="B48" s="1">
+        <v>52</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="20">
+        <v>45433</v>
+      </c>
+      <c r="E48" s="1">
+        <v>50001</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2</v>
+      </c>
+      <c r="G48" s="1">
+        <v>3</v>
+      </c>
+      <c r="I48" s="1">
+        <v>3</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="24"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="F52" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="J52" s="22"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="F53" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I53" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="J53" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="F54" s="1">
+        <v>23</v>
+      </c>
+      <c r="G54" s="1">
+        <v>3</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="F55" s="1"/>
+      <c r="G55" s="1">
+        <v>5</v>
+      </c>
+      <c r="H55" s="1">
+        <v>2</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="17">
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="B44:G44"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F15:H15"/>
@@ -1645,7 +1912,7 @@
   <dimension ref="D8:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21:L21"/>
+      <selection activeCell="J18" sqref="J18:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1723,7 +1990,11 @@
       <c r="M16" s="8"/>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="K18" s="1"/>
+      <c r="J18" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D19" s="1">
@@ -1732,29 +2003,50 @@
       <c r="E19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K19" s="1"/>
+      <c r="J19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.4">
       <c r="G20" s="8"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>23</v>
+      </c>
       <c r="M20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="12"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1">
+        <v>3</v>
+      </c>
+      <c r="L21" s="1">
+        <v>52</v>
+      </c>
       <c r="M21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="J22" s="1"/>
       <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J18:L18"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
